--- a/StructureDefinition-sm-organization.xlsx
+++ b/StructureDefinition-sm-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T09:42:39+00:00</t>
+    <t>2024-10-31T17:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -343,7 +343,7 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
+    <t>用以表述Patient Resource内容的语言。</t>
   </si>
   <si>
     <t>The base language in which the resource is written.</t>
@@ -352,10 +352,10 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
+    <t>zh-CN</t>
+  </si>
+  <si>
     <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -2137,7 +2137,7 @@
         <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>19</v>
@@ -2149,11 +2149,9 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
         <v>111</v>
       </c>

--- a/StructureDefinition-sm-organization.xlsx
+++ b/StructureDefinition-sm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T17:01:14+00:00</t>
+    <t>2024-11-08T09:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sm-organization.xlsx
+++ b/StructureDefinition-sm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:27:50+00:00</t>
+    <t>2024-11-11T08:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sm-organization.xlsx
+++ b/StructureDefinition-sm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T08:35:31+00:00</t>
+    <t>2024-11-11T09:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
